--- a/biology/Médecine/Hyperandrogénie/Hyperandrogénie.xlsx
+++ b/biology/Médecine/Hyperandrogénie/Hyperandrogénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperandrog%C3%A9nie</t>
+          <t>Hyperandrogénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hyperandrogénie est une variation du développement humain se manifestant par des taux élevés d'hormones mâle. Les symptômes peuvent comprendre l'acné, la séborrhée (inflammation de la peau), la perte de cheveux, l'augmentation de la pilosité sur le corps ou le visage, des règles peu fréquentes ou absentes[1]. Les complications peuvent entraîner une hypercholestérolémie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperandrogénie est une variation du développement humain se manifestant par des taux élevés d'hormones mâle. Les symptômes peuvent comprendre l'acné, la séborrhée (inflammation de la peau), la perte de cheveux, l'augmentation de la pilosité sur le corps ou le visage, des règles peu fréquentes ou absentes. Les complications peuvent entraîner une hypercholestérolémie.
 Dans environ 70 % des cas, l'hyperandrogénie est dû au syndrome des ovaires polykystiques. Les autres cas sont causés par l'hyperplasie surrénalienne, le syndrome de Cushing, certains types de cancer et certains médicaments. Le diagnostic comprend généralement des tests sanguins pour la testostérone, la 17-hydroxyprogestérone et la prolactine ainsi qu'une échographie pelvienne.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperandrog%C3%A9nie</t>
+          <t>Hyperandrogénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,25 +524,20 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hyperandrogénie touche de 5 à 10 % des femmes en âge de procréer. Elle est généralement diagnostiquée à la fin de l'adolescence par une évaluation médicale qui consiste en un examen pelvien, l'observation des symptômes externes et un test sanguin mesurant les taux d'androgènes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'hyperandrogénie touche de 5 à 10 % des femmes en âge de procréer. Elle est généralement diagnostiquée à la fin de l'adolescence par une évaluation médicale qui consiste en un examen pelvien, l'observation des symptômes externes et un test sanguin mesurant les taux d'androgènes.
 L'hyperandrogénie peut également toucher les hommes mais les symptômes sont souvent plus négligeables chez eux.
-Signes observés[1] :
-Hirsutisme [2]
+Signes observés :
+Hirsutisme 
 Acné
 Séborrhée (inflammation de la peau)
 Alopécie (perte de cheveux)
 Augmentation de la pilosité sur le corps ou le visage
-Règles peu fréquentes ou aménorrhée (absence de règles)[3]
-Hypercholestérolémie
-Chez les femmes
-L'hyperandrogénie, en particulier les niveaux élevés de testostérone, peut causer des effets indésirables graves sur le corps des femmes si elle n'est pas traitée : obésité, hypertension, aménorrhée ou dysfonctionnement ovulatoire qui peuvent entraîner l'infertilité. Les signes les plus visibles sont l'hirsutisme (croissance indésirable des poils, en particulier dans la région abdominale et sur le dos), l'acné après l'adolescence, la transformation de la voix vers les graves et l'alopécie (calvities).
-On constate également que l'hyperandrogénie entraîne une tolérance élevée à l'insuline, ce qui peut mener à un diabète de type 2 et à une dyslipidémie, comme l'hypercholestérolémie. Ces effets sont également perçus comme ayant un impact psychologique important sur l'individu, conduisant parfois à l'anxiété et à la dépression, en particulier chez les adolescentes et les jeunes femmes. Associée à l'obésité et à l'hirsutisme, elle peut entraîner un manque d'estime de soi et une mauvaise perception de soi.
-Chez les hommes
-L'hyperandrogénie est peu courante chez les hommes. Des études ont toutefois été réalisées pour examiner les effets de taux élevés de testostérone dans cette population qui n'ont pas révélé un impact direct.
-On remarque dans certains cas une atrophie ou au moins une hypotrophie testiculaire. Les androgènes exercent en effet leur rétrocontrôle négatif sur la FSH/LH hypophysaire, hors ces hormones jouent un rôle important dans la trophicité des gonades. 
-</t>
+Règles peu fréquentes ou aménorrhée (absence de règles)
+Hypercholestérolémie</t>
         </is>
       </c>
     </row>
@@ -540,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperandrog%C3%A9nie</t>
+          <t>Hyperandrogénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,12 +562,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Confirmation biologique du diagnostic</t>
+          <t>Symptômes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'hyperandrogénie peut être confirmée par le dosage sanguin des androgènes : testostérone totale, et/ou testostérone libre notamment [4].
+          <t>Chez les femmes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperandrogénie, en particulier les niveaux élevés de testostérone, peut causer des effets indésirables graves sur le corps des femmes si elle n'est pas traitée : obésité, hypertension, aménorrhée ou dysfonctionnement ovulatoire qui peuvent entraîner l'infertilité. Les signes les plus visibles sont l'hirsutisme (croissance indésirable des poils, en particulier dans la région abdominale et sur le dos), l'acné après l'adolescence, la transformation de la voix vers les graves et l'alopécie (calvities).
+On constate également que l'hyperandrogénie entraîne une tolérance élevée à l'insuline, ce qui peut mener à un diabète de type 2 et à une dyslipidémie, comme l'hypercholestérolémie. Ces effets sont également perçus comme ayant un impact psychologique important sur l'individu, conduisant parfois à l'anxiété et à la dépression, en particulier chez les adolescentes et les jeunes femmes. Associée à l'obésité et à l'hirsutisme, elle peut entraîner un manque d'estime de soi et une mauvaise perception de soi.
 </t>
         </is>
       </c>
@@ -571,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperandrog%C3%A9nie</t>
+          <t>Hyperandrogénie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,78 +600,155 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez les hommes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperandrogénie est peu courante chez les hommes. Des études ont toutefois été réalisées pour examiner les effets de taux élevés de testostérone dans cette population qui n'ont pas révélé un impact direct.
+On remarque dans certains cas une atrophie ou au moins une hypotrophie testiculaire. Les androgènes exercent en effet leur rétrocontrôle négatif sur la FSH/LH hypophysaire, hors ces hormones jouent un rôle important dans la trophicité des gonades. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyperandrogénie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperandrog%C3%A9nie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Confirmation biologique du diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyperandrogénie peut être confirmée par le dosage sanguin des androgènes : testostérone totale, et/ou testostérone libre notamment .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyperandrogénie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyperandrog%C3%A9nie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Une hyperandrogénie peut être causée par [4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une hyperandrogénie peut être causée par  :
 une tumeur qui sécrète de la testostérone, surrénalienne ou ovarienne notamment ;
 une maladie génétique de déficit enzymatique : forme non classique d'un déficit en 21 hydroxylase (aussi appelé hyperplasie congénitale des surrénales) ;
 le syndrome des ovaires polykystiques (aussi appelé Syndrome de Stein Leventhal).</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hyperandrog%C3%A9nie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyperandrogénie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hyperandrog%C3%A9nie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge d'une hyperandrogénie repose, quand cela est possible, sur le traitement des symptômes, notamment certains anti-androgènes, certaines pilules contraceptives et des traitements dermatologiques[5] ; et le traitement de la cause si possible.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge d'une hyperandrogénie repose, quand cela est possible, sur le traitement des symptômes, notamment certains anti-androgènes, certaines pilules contraceptives et des traitements dermatologiques ; et le traitement de la cause si possible.
 Des traitements hormonaux existent mais cela dépend des signes extérieurs et des taux observés.
-Une opération n’est possible que lorsque la cause est chirurgicale. C’est-à-dire si l’hyperandrogénie vient d’un kyste ou d’une tumeur bénigne il faut l’enlever[6].
+Une opération n’est possible que lorsque la cause est chirurgicale. C’est-à-dire si l’hyperandrogénie vient d’un kyste ou d’une tumeur bénigne il faut l’enlever.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hyperandrog%C3%A9nie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hyperandrogénie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hyperandrog%C3%A9nie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Athlétisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération internationale d'athlétisme veut imposer des règles d’éligibilité aux compétitions féminines basées sur l'idée que le taux de testostérone et les performances sont directement corrélés, et que l’hyperandrogénie de certaines athlètes les ferait profiter d’avantages inéquitables[7],[8],[9].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération internationale d'athlétisme veut imposer des règles d’éligibilité aux compétitions féminines basées sur l'idée que le taux de testostérone et les performances sont directement corrélés, et que l’hyperandrogénie de certaines athlètes les ferait profiter d’avantages inéquitables.
 </t>
         </is>
       </c>
